--- a/doc/convert_excel_to_md_model.xlsx
+++ b/doc/convert_excel_to_md_model.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hades/Documents/GitHub/AndroidAboutDemos/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB0A641-611E-B244-AF3E-2A845B9E3193}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB68A07A-64C2-814E-BFF6-ABFB57979369}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CE9A8E0E-7C5D-A34E-B819-2211D9A6DAA1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{CE9A8E0E-7C5D-A34E-B819-2211D9A6DAA1}"/>
   </bookViews>
   <sheets>
     <sheet name="xml" sheetId="3" r:id="rId1"/>
     <sheet name="func" sheetId="2" r:id="rId2"/>
     <sheet name="model" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="29">
   <si>
     <t>|</t>
   </si>
@@ -96,6 +96,24 @@
   </si>
   <si>
     <t>设置切换的间隔时间（ms）</t>
+  </si>
+  <si>
+    <t>addView(View child)</t>
+  </si>
+  <si>
+    <t>动态添加 view</t>
+  </si>
+  <si>
+    <t>getDisplayedChild()</t>
+  </si>
+  <si>
+    <t>当前 Showed View 的 index</t>
+  </si>
+  <si>
+    <t>viewFlipper.getChildCount()</t>
+  </si>
+  <si>
+    <t>Items 的总数</t>
   </si>
 </sst>
 </file>
@@ -461,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF8CCF2-AE0D-0541-9EF1-0A620AC1EE56}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -866,14 +884,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB958F70-6CED-B04E-AE65-FE206D70ADE4}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="46.6640625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
     <col min="4" max="4" width="33.5" customWidth="1"/>
   </cols>
@@ -999,30 +1017,48 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>|</v>
+        <v>addView(View child)|动态添加 view</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>|</v>
+        <v>getDisplayedChild()|当前 Showed View 的 index</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>|</v>
+        <v>viewFlipper.getChildCount()|Items 的总数</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1294,6 +1330,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1363,7 +1400,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" t="str">
-        <f t="shared" ref="D2:D10" si="1">CONCATENATE(A5,B5,C5)</f>
+        <f t="shared" ref="D5:D10" si="1">CONCATENATE(A5,B5,C5)</f>
         <v/>
       </c>
     </row>

--- a/doc/convert_excel_to_md_model.xlsx
+++ b/doc/convert_excel_to_md_model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hades/Documents/GitHub/AndroidAboutDemos/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB68A07A-64C2-814E-BFF6-ABFB57979369}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66566A56-D181-FE47-BBE4-5EB4D3B69C52}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{CE9A8E0E-7C5D-A34E-B819-2211D9A6DAA1}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="11">
   <si>
     <t>|</t>
   </si>
@@ -50,40 +50,7 @@
     <t>https://blog.csdn.net/wolinghuanyun/article/details/52811009</t>
   </si>
   <si>
-    <t>showPrevious()</t>
-  </si>
-  <si>
-    <t>showNext()</t>
-  </si>
-  <si>
-    <t>显示上一个 view</t>
-  </si>
-  <si>
-    <t>startFlipping()</t>
-  </si>
-  <si>
-    <t>开始 auto</t>
-  </si>
-  <si>
-    <t>stopFlipping()</t>
-  </si>
-  <si>
-    <t>停止 auto</t>
-  </si>
-  <si>
-    <t>setInAnimation</t>
-  </si>
-  <si>
-    <t>setOutAnimation</t>
-  </si>
-  <si>
     <t>常见函数</t>
-  </si>
-  <si>
-    <t>设置进入动画</t>
-  </si>
-  <si>
-    <t>设置移出动画</t>
   </si>
   <si>
     <t>常见XML 属性</t>
@@ -92,28 +59,7 @@
     <t>android:flipInterval="1000"</t>
   </si>
   <si>
-    <t>显示下一个View</t>
-  </si>
-  <si>
     <t>设置切换的间隔时间（ms）</t>
-  </si>
-  <si>
-    <t>addView(View child)</t>
-  </si>
-  <si>
-    <t>动态添加 view</t>
-  </si>
-  <si>
-    <t>getDisplayedChild()</t>
-  </si>
-  <si>
-    <t>当前 Showed View 的 index</t>
-  </si>
-  <si>
-    <t>viewFlipper.getChildCount()</t>
-  </si>
-  <si>
-    <t>Items 的总数</t>
   </si>
 </sst>
 </file>
@@ -493,7 +439,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -523,10 +469,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -885,7 +831,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -898,7 +844,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -927,138 +873,84 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
-        <v>showPrevious()|显示上一个 view</v>
+        <v>|</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>showNext()|显示下一个View</v>
+        <v>|</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>startFlipping()|开始 auto</v>
+        <v>|</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>stopFlipping()|停止 auto</v>
+        <v>|</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>setInAnimation|设置进入动画</v>
+        <v>|</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>setOutAnimation|设置移出动画</v>
+        <v>|</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>addView(View child)|动态添加 view</v>
+        <v>|</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>getDisplayedChild()|当前 Showed View 的 index</v>
+        <v>|</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>viewFlipper.getChildCount()|Items 的总数</v>
+        <v>|</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/doc/convert_excel_to_md_model.xlsx
+++ b/doc/convert_excel_to_md_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hades/Documents/GitHub/AndroidAboutDemos/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66566A56-D181-FE47-BBE4-5EB4D3B69C52}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE2DF74-41B7-C845-B1E5-FDD49ABCF171}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{CE9A8E0E-7C5D-A34E-B819-2211D9A6DAA1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CE9A8E0E-7C5D-A34E-B819-2211D9A6DAA1}"/>
   </bookViews>
   <sheets>
     <sheet name="xml" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="19">
   <si>
     <t>|</t>
   </si>
@@ -56,17 +56,41 @@
     <t>常见XML 属性</t>
   </si>
   <si>
-    <t>android:flipInterval="1000"</t>
-  </si>
-  <si>
-    <t>设置切换的间隔时间（ms）</t>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>setIconifiedByDefault</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>android:iconifiedByDefault</t>
+  </si>
+  <si>
+    <t>setSubmitButtonEnabled</t>
+  </si>
+  <si>
+    <t>是否显示搜索按钮</t>
+  </si>
+  <si>
+    <t>setQueryHint</t>
+  </si>
+  <si>
+    <t>提示文本</t>
+  </si>
+  <si>
+    <t>是否自动缩小为图标</t>
+  </si>
+  <si>
+    <t>android:queryHint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,6 +106,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF808080"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -91,10 +121,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -104,10 +145,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -425,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF8CCF2-AE0D-0541-9EF1-0A620AC1EE56}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,36 +511,48 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
-        <v>android:flipInterval="1000"|设置切换的间隔时间（ms）</v>
+        <v>android:iconifiedByDefault|是否自动缩小为图标</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>|</v>
+        <v>-|是否显示搜索按钮</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>|</v>
+        <v>android:queryHint|提示文本</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -828,394 +883,427 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB958F70-6CED-B04E-AE65-FE206D70ADE4}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="1" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="str">
-        <f>CONCATENATE(A1,C1,B1)</f>
-        <v>常见函数|描述</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="str">
+        <f>CONCATENATE(A1,A2,D1,C1)</f>
+        <v>常见函数---|描述</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2:D41" si="0">CONCATENATE(A2,C2,B2)</f>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E41" si="0">CONCATENATE(A2,D2,C2)</f>
         <v>---|---</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D41" t="str">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>setIconifiedByDefault|是否自动缩小为图标</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>setSubmitButtonEnabled|是否显示搜索按钮</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>setQueryHint|提示文本</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>

--- a/doc/convert_excel_to_md_model.xlsx
+++ b/doc/convert_excel_to_md_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hades/Documents/GitHub/AndroidAboutDemos/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE2DF74-41B7-C845-B1E5-FDD49ABCF171}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC6017F-F141-C642-AFF7-43C935B1E150}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CE9A8E0E-7C5D-A34E-B819-2211D9A6DAA1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{CE9A8E0E-7C5D-A34E-B819-2211D9A6DAA1}"/>
   </bookViews>
   <sheets>
     <sheet name="xml" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="35">
   <si>
     <t>|</t>
   </si>
@@ -56,27 +56,9 @@
     <t>常见XML 属性</t>
   </si>
   <si>
-    <t>XML</t>
-  </si>
-  <si>
-    <t>setIconifiedByDefault</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>android:iconifiedByDefault</t>
   </si>
   <si>
-    <t>setSubmitButtonEnabled</t>
-  </si>
-  <si>
-    <t>是否显示搜索按钮</t>
-  </si>
-  <si>
-    <t>setQueryHint</t>
-  </si>
-  <si>
     <t>提示文本</t>
   </si>
   <si>
@@ -84,13 +66,79 @@
   </si>
   <si>
     <t>android:queryHint</t>
+  </si>
+  <si>
+    <t>设置标题</t>
+  </si>
+  <si>
+    <t>AlertDialog.Builder.setIcon()</t>
+  </si>
+  <si>
+    <t>设置 Icon</t>
+  </si>
+  <si>
+    <t>AlertDialog.Builder.setMessage()</t>
+  </si>
+  <si>
+    <t>内容区 = 普通文本</t>
+  </si>
+  <si>
+    <t>AlertDialog.Builder.setItems(items, new DialogInterface.OnClickListener() )</t>
+  </si>
+  <si>
+    <t>内容区 = 简单列表</t>
+  </si>
+  <si>
+    <t>内容区 = 单选列表</t>
+  </si>
+  <si>
+    <t>内容区 = 多选列表</t>
+  </si>
+  <si>
+    <t>AlertDialog.Builder..setSingleChoiceItems(items, 1, new DialogInterface.OnClickListener() )</t>
+  </si>
+  <si>
+    <t>AlertDialog.Builder.setMultiChoiceItems(items, new boolean[]{false, true, false, true}, new DialogInterface.OnMultiChoiceClickListener())</t>
+  </si>
+  <si>
+    <t>AlertDialog.Builder.setAdapter(new ArrayAdapter&lt;&gt;(getUsedContext(), R.layout.other_ui_alertdialog_customList_itemview, items), new DialogInterface.OnClickListener())</t>
+  </si>
+  <si>
+    <t>内容区 = 自定义列表</t>
+  </si>
+  <si>
+    <t>AlertDialog.Builder.setView(customView)</t>
+  </si>
+  <si>
+    <t>内容区 = 自定义View</t>
+  </si>
+  <si>
+    <t>添加取消按钮</t>
+  </si>
+  <si>
+    <t>AlertDialog.Builder.setNegativeButton("取消", new DialogInterface.OnClickListener())</t>
+  </si>
+  <si>
+    <t>添加确定按钮</t>
+  </si>
+  <si>
+    <t>AlertDialog.Builder.setPositiveButton("确定", new DialogInterface.OnClickListener())</t>
+  </si>
+  <si>
+    <t>AlertDialog.Builder.setNeutralButton("忽略", new DialogInterface.OnClickListener())</t>
+  </si>
+  <si>
+    <t>添加修饰按钮</t>
+  </si>
+  <si>
+    <t>AlertDialog.Builder.setTitle(String)、setCustomTitle(View)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,6 +159,13 @@
       <color rgb="FF808080"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,12 +200,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -466,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF8CCF2-AE0D-0541-9EF1-0A620AC1EE56}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,7 +534,7 @@
     <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -506,53 +563,47 @@
         <v>0</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D41" si="0">CONCATENATE(A2,C2,B2)</f>
+        <f t="shared" ref="D2:D40" si="0">CONCATENATE(A2,C2,B2)</f>
         <v>---|---</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>android:iconifiedByDefault|是否自动缩小为图标</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v>android:iconifiedByDefault|是否自动缩小为图标</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>-|是否显示搜索按钮</v>
+        <v>android:queryHint|提示文本</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>android:queryHint|提示文本</v>
+        <v>|</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -862,16 +913,7 @@
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>0</v>
-      </c>
       <c r="D40" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -883,430 +925,466 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB958F70-6CED-B04E-AE65-FE206D70ADE4}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" customWidth="1"/>
-    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="1" max="1" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="163.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="str">
-        <f>CONCATENATE(A1,A2,D1,C1)</f>
-        <v>常见函数---|描述</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="D1" t="str">
+        <f>CONCATENATE(A1,C1,B1)</f>
+        <v>常见函数|描述</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" ref="E2:E41" si="0">CONCATENATE(A2,D2,C2)</f>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE(A2,C2,B2)</f>
         <v>---|---</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="str">
+        <f>CONCATENATE(A3,C3,B3)</f>
+        <v>AlertDialog.Builder.setTitle(String)、setCustomTitle(View)|设置标题</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="str">
+        <f>CONCATENATE(A4,C4,B4)</f>
+        <v>AlertDialog.Builder.setIcon()|设置 Icon</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" si="0"/>
-        <v>setIconifiedByDefault|是否自动缩小为图标</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>setSubmitButtonEnabled|是否显示搜索按钮</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="str">
+        <f>CONCATENATE(A5,C5,B5)</f>
+        <v>AlertDialog.Builder.setMessage()|内容区 = 普通文本</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>setQueryHint|提示文本</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D28" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D37" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v>|</v>
-      </c>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E41" t="str">
-        <f t="shared" si="0"/>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="str">
+        <f>CONCATENATE(A6,C6,B6)</f>
+        <v>AlertDialog.Builder.setItems(items, new DialogInterface.OnClickListener() )|内容区 = 简单列表</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="str">
+        <f>CONCATENATE(A7,C7,B7)</f>
+        <v>AlertDialog.Builder..setSingleChoiceItems(items, 1, new DialogInterface.OnClickListener() )|内容区 = 单选列表</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="str">
+        <f>CONCATENATE(A8,C8,B8)</f>
+        <v>AlertDialog.Builder.setMultiChoiceItems(items, new boolean[]{false, true, false, true}, new DialogInterface.OnMultiChoiceClickListener())|内容区 = 多选列表</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="str">
+        <f>CONCATENATE(A9,C9,B9)</f>
+        <v>AlertDialog.Builder.setAdapter(new ArrayAdapter&lt;&gt;(getUsedContext(), R.layout.other_ui_alertdialog_customList_itemview, items), new DialogInterface.OnClickListener())|内容区 = 自定义列表</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="str">
+        <f>CONCATENATE(A10,C10,B10)</f>
+        <v>AlertDialog.Builder.setView(customView)|内容区 = 自定义View</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="str">
+        <f>CONCATENATE(A11,C11,B11)</f>
+        <v>AlertDialog.Builder.setPositiveButton("确定", new DialogInterface.OnClickListener())|添加确定按钮</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="str">
+        <f>CONCATENATE(A12,C12,B12)</f>
+        <v>AlertDialog.Builder.setNeutralButton("忽略", new DialogInterface.OnClickListener())|添加修饰按钮</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="str">
+        <f>CONCATENATE(A13,C13,B13)</f>
+        <v>AlertDialog.Builder.setNegativeButton("取消", new DialogInterface.OnClickListener())|添加取消按钮</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="str">
+        <f>CONCATENATE(A14,C14,B14)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="str">
+        <f>CONCATENATE(A15,C15,B15)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="str">
+        <f>CONCATENATE(A16,C16,B16)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="str">
+        <f>CONCATENATE(A17,C17,B17)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="str">
+        <f>CONCATENATE(A18,C18,B18)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="str">
+        <f>CONCATENATE(A19,C19,B19)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="str">
+        <f>CONCATENATE(A20,C20,B20)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="str">
+        <f>CONCATENATE(A21,C21,B21)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="str">
+        <f>CONCATENATE(A22,C22,B22)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="str">
+        <f>CONCATENATE(A23,C23,B23)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="str">
+        <f>CONCATENATE(A24,C24,B24)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="str">
+        <f>CONCATENATE(A25,C25,B25)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="str">
+        <f>CONCATENATE(A26,C26,B26)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="str">
+        <f>CONCATENATE(A27,C27,B27)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" t="str">
+        <f>CONCATENATE(A28,C28,B28)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="str">
+        <f>CONCATENATE(A29,C29,B29)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="str">
+        <f>CONCATENATE(A30,C30,B30)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="str">
+        <f>CONCATENATE(A31,C31,B31)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="str">
+        <f>CONCATENATE(A32,C32,B32)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" t="str">
+        <f>CONCATENATE(A33,C33,B33)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" t="str">
+        <f>CONCATENATE(A34,C34,B34)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" t="str">
+        <f>CONCATENATE(A35,C35,B35)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" t="str">
+        <f>CONCATENATE(A36,C36,B36)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="str">
+        <f>CONCATENATE(A37,C37,B37)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" t="str">
+        <f>CONCATENATE(A38,C38,B38)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="str">
+        <f>CONCATENATE(A39,C39,B39)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" t="str">
+        <f>CONCATENATE(A40,C40,B40)</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D41" t="str">
+        <f>CONCATENATE(A41,C41,B41)</f>
         <v/>
       </c>
+    </row>
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1048576" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/convert_excel_to_md_model.xlsx
+++ b/doc/convert_excel_to_md_model.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hades/Documents/GitHub/AndroidAboutDemos/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC6017F-F141-C642-AFF7-43C935B1E150}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D560B3EE-C586-DD42-B65D-1DBF2D46A312}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{CE9A8E0E-7C5D-A34E-B819-2211D9A6DAA1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{CE9A8E0E-7C5D-A34E-B819-2211D9A6DAA1}"/>
   </bookViews>
   <sheets>
     <sheet name="xml" sheetId="3" r:id="rId1"/>
-    <sheet name="func" sheetId="2" r:id="rId2"/>
-    <sheet name="model" sheetId="1" r:id="rId3"/>
+    <sheet name="model" sheetId="1" r:id="rId2"/>
+    <sheet name="func" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="18">
   <si>
     <t>|</t>
   </si>
@@ -50,9 +50,6 @@
     <t>https://blog.csdn.net/wolinghuanyun/article/details/52811009</t>
   </si>
   <si>
-    <t>常见函数</t>
-  </si>
-  <si>
     <t>常见XML 属性</t>
   </si>
   <si>
@@ -68,70 +65,22 @@
     <t>android:queryHint</t>
   </si>
   <si>
-    <t>设置标题</t>
-  </si>
-  <si>
-    <t>AlertDialog.Builder.setIcon()</t>
-  </si>
-  <si>
-    <t>设置 Icon</t>
-  </si>
-  <si>
-    <t>AlertDialog.Builder.setMessage()</t>
-  </si>
-  <si>
-    <t>内容区 = 普通文本</t>
-  </si>
-  <si>
-    <t>AlertDialog.Builder.setItems(items, new DialogInterface.OnClickListener() )</t>
-  </si>
-  <si>
-    <t>内容区 = 简单列表</t>
-  </si>
-  <si>
-    <t>内容区 = 单选列表</t>
-  </si>
-  <si>
-    <t>内容区 = 多选列表</t>
-  </si>
-  <si>
-    <t>AlertDialog.Builder..setSingleChoiceItems(items, 1, new DialogInterface.OnClickListener() )</t>
-  </si>
-  <si>
-    <t>AlertDialog.Builder.setMultiChoiceItems(items, new boolean[]{false, true, false, true}, new DialogInterface.OnMultiChoiceClickListener())</t>
-  </si>
-  <si>
-    <t>AlertDialog.Builder.setAdapter(new ArrayAdapter&lt;&gt;(getUsedContext(), R.layout.other_ui_alertdialog_customList_itemview, items), new DialogInterface.OnClickListener())</t>
-  </si>
-  <si>
-    <t>内容区 = 自定义列表</t>
-  </si>
-  <si>
-    <t>AlertDialog.Builder.setView(customView)</t>
-  </si>
-  <si>
-    <t>内容区 = 自定义View</t>
-  </si>
-  <si>
-    <t>添加取消按钮</t>
-  </si>
-  <si>
-    <t>AlertDialog.Builder.setNegativeButton("取消", new DialogInterface.OnClickListener())</t>
-  </si>
-  <si>
-    <t>添加确定按钮</t>
-  </si>
-  <si>
-    <t>AlertDialog.Builder.setPositiveButton("确定", new DialogInterface.OnClickListener())</t>
-  </si>
-  <si>
-    <t>AlertDialog.Builder.setNeutralButton("忽略", new DialogInterface.OnClickListener())</t>
-  </si>
-  <si>
-    <t>添加修饰按钮</t>
-  </si>
-  <si>
-    <t>AlertDialog.Builder.setTitle(String)、setCustomTitle(View)</t>
+    <t>Sending broadcasts</t>
+  </si>
+  <si>
+    <t>Receiving broadcasts</t>
+  </si>
+  <si>
+    <t>targetSdkVersion 26</t>
+  </si>
+  <si>
+    <t>manifest-declared receivers</t>
+  </si>
+  <si>
+    <t>Send an Implicit Broadcast</t>
+  </si>
+  <si>
+    <t>NO.</t>
   </si>
 </sst>
 </file>
@@ -526,7 +475,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,7 +488,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -569,10 +518,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -584,10 +533,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -924,11 +873,122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4E3115-B377-BC45-B272-442E2E656984}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="str">
+        <f>CONCATENATE(A1,C1,B1)</f>
+        <v>标题|描述</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D4" si="0">CONCATENATE(A2,C2,B2)</f>
+        <v>---|---</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>A|B</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D10" si="1">CONCATENATE(A5,B5,C5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>https://blog.csdn.net/wolinghuanyun/article/details/52811009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{C22551F7-B758-DF45-BF22-022C93C8FDFB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB958F70-6CED-B04E-AE65-FE206D70ADE4}">
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -941,17 +1001,17 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="str">
         <f>CONCATENATE(A1,C1,B1)</f>
-        <v>常见函数|描述</v>
+        <v>Sending broadcasts|Receiving broadcasts</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -965,173 +1025,128 @@
         <v>0</v>
       </c>
       <c r="D2" t="str">
-        <f>CONCATENATE(A2,C2,B2)</f>
+        <f t="shared" ref="D2" si="0">CONCATENATE(A2,C2,B2)</f>
         <v>---|---</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="str">
         <f>CONCATENATE(A3,C3,B3)</f>
-        <v>AlertDialog.Builder.setTitle(String)、setCustomTitle(View)|设置标题</v>
+        <v>targetSdkVersion 26|manifest-declared receivers</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="str">
         <f>CONCATENATE(A4,C4,B4)</f>
-        <v>AlertDialog.Builder.setIcon()|设置 Icon</v>
+        <v>Send an Implicit Broadcast|NO.</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B5" s="4"/>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="str">
         <f>CONCATENATE(A5,C5,B5)</f>
-        <v>AlertDialog.Builder.setMessage()|内容区 = 普通文本</v>
+        <v>|</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="B6" s="4"/>
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6" t="str">
         <f>CONCATENATE(A6,C6,B6)</f>
-        <v>AlertDialog.Builder.setItems(items, new DialogInterface.OnClickListener() )|内容区 = 简单列表</v>
+        <v>|</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7" t="str">
         <f>CONCATENATE(A7,C7,B7)</f>
-        <v>AlertDialog.Builder..setSingleChoiceItems(items, 1, new DialogInterface.OnClickListener() )|内容区 = 单选列表</v>
+        <v>|</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="B8" s="4"/>
       <c r="C8" t="s">
         <v>0</v>
       </c>
       <c r="D8" t="str">
         <f>CONCATENATE(A8,C8,B8)</f>
-        <v>AlertDialog.Builder.setMultiChoiceItems(items, new boolean[]{false, true, false, true}, new DialogInterface.OnMultiChoiceClickListener())|内容区 = 多选列表</v>
+        <v>|</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B9" s="5"/>
       <c r="C9" t="s">
         <v>0</v>
       </c>
       <c r="D9" t="str">
         <f>CONCATENATE(A9,C9,B9)</f>
-        <v>AlertDialog.Builder.setAdapter(new ArrayAdapter&lt;&gt;(getUsedContext(), R.layout.other_ui_alertdialog_customList_itemview, items), new DialogInterface.OnClickListener())|内容区 = 自定义列表</v>
+        <v>|</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B10" s="5"/>
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="D10" t="str">
         <f>CONCATENATE(A10,C10,B10)</f>
-        <v>AlertDialog.Builder.setView(customView)|内容区 = 自定义View</v>
+        <v>|</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="B11" s="6"/>
       <c r="C11" t="s">
         <v>0</v>
       </c>
       <c r="D11" t="str">
         <f>CONCATENATE(A11,C11,B11)</f>
-        <v>AlertDialog.Builder.setPositiveButton("确定", new DialogInterface.OnClickListener())|添加确定按钮</v>
+        <v>|</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="B12" s="6"/>
       <c r="C12" t="s">
         <v>0</v>
       </c>
       <c r="D12" t="str">
         <f>CONCATENATE(A12,C12,B12)</f>
-        <v>AlertDialog.Builder.setNeutralButton("忽略", new DialogInterface.OnClickListener())|添加修饰按钮</v>
+        <v>|</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="B13" s="6"/>
       <c r="C13" t="s">
         <v>0</v>
       </c>
       <c r="D13" t="str">
         <f>CONCATENATE(A13,C13,B13)</f>
-        <v>AlertDialog.Builder.setNegativeButton("取消", new DialogInterface.OnClickListener())|添加取消按钮</v>
+        <v>|</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1390,115 +1405,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4E3115-B377-BC45-B272-442E2E656984}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="str">
-        <f>CONCATENATE(A1,C1,B1)</f>
-        <v>标题|描述</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2:D4" si="0">CONCATENATE(A2,C2,B2)</f>
-        <v>---|---</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v>A|B</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D5" t="str">
-        <f t="shared" ref="D5:D10" si="1">CONCATENATE(A5,B5,C5)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="1"/>
-        <v>https://blog.csdn.net/wolinghuanyun/article/details/52811009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" xr:uid="{C22551F7-B758-DF45-BF22-022C93C8FDFB}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>